--- a/Statistical analyses/Tukey posthoc/CBH/Km, timePoint x Vegetation.xlsx
+++ b/Statistical analyses/Tukey posthoc/CBH/Km, timePoint x Vegetation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\CBH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84218F90-6CDF-476A-9BFC-25F0B48D28D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Km" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,17 +129,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -453,22 +512,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.3793</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="D2">
-        <v>0.0862</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>-0.0285</v>
+        <v>-2.8500000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>0.787</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -476,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.1577</v>
+        <v>0.15770000000000001</v>
       </c>
       <c r="D3">
         <v>0.9</v>
@@ -485,13 +544,13 @@
         <v>-0.25</v>
       </c>
       <c r="F3">
-        <v>0.5654</v>
+        <v>0.56540000000000001</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -499,45 +558,45 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-0.0114</v>
+        <v>-1.14E-2</v>
       </c>
       <c r="D4">
         <v>0.9</v>
       </c>
       <c r="E4">
-        <v>-0.4192</v>
+        <v>-0.41920000000000002</v>
       </c>
       <c r="F4">
-        <v>0.3963</v>
+        <v>0.39629999999999999</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>-0.5547</v>
-      </c>
-      <c r="D5">
-        <v>0.0018</v>
-      </c>
-      <c r="E5">
-        <v>-0.9624</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="2">
+        <v>-0.55469999999999997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.96240000000000003</v>
+      </c>
+      <c r="F5" s="2">
         <v>-0.1469</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -545,22 +604,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.09950000000000001</v>
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="D6">
         <v>0.9</v>
       </c>
       <c r="E6">
-        <v>-0.3082</v>
+        <v>-0.30819999999999997</v>
       </c>
       <c r="F6">
-        <v>0.5072</v>
+        <v>0.50719999999999998</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,13 +627,13 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>-0.1748</v>
+        <v>-0.17480000000000001</v>
       </c>
       <c r="D7">
-        <v>0.8666</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="E7">
-        <v>-0.5825</v>
+        <v>-0.58250000000000002</v>
       </c>
       <c r="F7">
         <v>0.2329</v>
@@ -583,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -597,16 +656,16 @@
         <v>0.9</v>
       </c>
       <c r="E8">
-        <v>-0.3045</v>
+        <v>-0.30449999999999999</v>
       </c>
       <c r="F8">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -614,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.2216</v>
+        <v>-0.22159999999999999</v>
       </c>
       <c r="D9">
-        <v>0.6585</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="E9">
-        <v>-0.6293</v>
+        <v>-0.62929999999999997</v>
       </c>
       <c r="F9">
         <v>0.1862</v>
@@ -629,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -637,45 +696,45 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.3907</v>
+        <v>-0.39069999999999999</v>
       </c>
       <c r="D10">
-        <v>0.0697</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="E10">
         <v>-0.7984</v>
       </c>
       <c r="F10">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>-0.9339</v>
-      </c>
-      <c r="D11">
-        <v>0.001</v>
-      </c>
-      <c r="E11">
-        <v>-1.3417</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="2">
+        <v>-0.93389999999999995</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1.3416999999999999</v>
+      </c>
+      <c r="F11" s="2">
         <v>-0.5262</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -683,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.2798</v>
+        <v>-0.27979999999999999</v>
       </c>
       <c r="D12">
-        <v>0.3929</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="E12">
         <v>-0.6875</v>
@@ -698,30 +757,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>-0.5541</v>
-      </c>
-      <c r="D13">
-        <v>0.0018</v>
-      </c>
-      <c r="E13">
-        <v>-0.9618</v>
-      </c>
-      <c r="F13">
+      <c r="C13" s="2">
+        <v>-0.55410000000000004</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.96179999999999999</v>
+      </c>
+      <c r="F13" s="2">
         <v>-0.1464</v>
       </c>
-      <c r="G13" t="b">
+      <c r="G13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -729,22 +788,22 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.276</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="D14">
-        <v>0.4106</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="E14">
-        <v>-0.6838</v>
+        <v>-0.68379999999999996</v>
       </c>
       <c r="F14">
-        <v>0.1317</v>
+        <v>0.13170000000000001</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -752,45 +811,45 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>-0.1692</v>
+        <v>-0.16919999999999999</v>
       </c>
       <c r="D15">
-        <v>0.8918</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="E15">
-        <v>-0.5769</v>
+        <v>-0.57689999999999997</v>
       </c>
       <c r="F15">
-        <v>0.2386</v>
+        <v>0.23860000000000001</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>-0.7124</v>
-      </c>
-      <c r="D16">
-        <v>0.001</v>
-      </c>
-      <c r="E16">
-        <v>-1.1201</v>
-      </c>
-      <c r="F16">
-        <v>-0.3047</v>
-      </c>
-      <c r="G16" t="b">
+      <c r="C16" s="2">
+        <v>-0.71240000000000003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-1.1201000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.30470000000000003</v>
+      </c>
+      <c r="G16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -798,22 +857,22 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>-0.0582</v>
+        <v>-5.8200000000000002E-2</v>
       </c>
       <c r="D17">
         <v>0.9</v>
       </c>
       <c r="E17">
-        <v>-0.4659</v>
+        <v>-0.46589999999999998</v>
       </c>
       <c r="F17">
-        <v>0.3495</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -821,22 +880,22 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>-0.3325</v>
+        <v>-0.33250000000000002</v>
       </c>
       <c r="D18">
-        <v>0.1896</v>
+        <v>0.18959999999999999</v>
       </c>
       <c r="E18">
-        <v>-0.7403</v>
+        <v>-0.74029999999999996</v>
       </c>
       <c r="F18">
-        <v>0.0752</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -844,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>-0.0545</v>
+        <v>-5.45E-2</v>
       </c>
       <c r="D19">
         <v>0.9</v>
@@ -853,36 +912,36 @@
         <v>-0.4622</v>
       </c>
       <c r="F19">
-        <v>0.3532</v>
+        <v>0.35320000000000001</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>-0.5432</v>
-      </c>
-      <c r="D20">
-        <v>0.0024</v>
-      </c>
-      <c r="E20">
-        <v>-0.9509</v>
-      </c>
-      <c r="F20">
-        <v>-0.1355</v>
-      </c>
-      <c r="G20" t="b">
+      <c r="C20" s="2">
+        <v>-0.54320000000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.95089999999999997</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-0.13550000000000001</v>
+      </c>
+      <c r="G20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -896,16 +955,16 @@
         <v>0.9</v>
       </c>
       <c r="E21">
-        <v>-0.2968</v>
+        <v>-0.29680000000000001</v>
       </c>
       <c r="F21">
-        <v>0.5187</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -913,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>-0.1634</v>
+        <v>-0.16339999999999999</v>
       </c>
       <c r="D22">
         <v>0.9</v>
       </c>
       <c r="E22">
-        <v>-0.5711000000000001</v>
+        <v>-0.57110000000000005</v>
       </c>
       <c r="F22">
-        <v>0.2444</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -942,39 +1001,39 @@
         <v>0.9</v>
       </c>
       <c r="E23">
-        <v>-0.2931</v>
+        <v>-0.29310000000000003</v>
       </c>
       <c r="F23">
-        <v>0.5224</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.6542</v>
       </c>
-      <c r="D24">
-        <v>0.001</v>
-      </c>
-      <c r="E24">
-        <v>0.2464</v>
-      </c>
-      <c r="F24">
-        <v>1.0619</v>
-      </c>
-      <c r="G24" t="b">
+      <c r="D24" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.0619000000000001</v>
+      </c>
+      <c r="G24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -982,45 +1041,45 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>0.3799</v>
+        <v>0.37990000000000002</v>
       </c>
       <c r="D25">
-        <v>0.0853</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="E25">
-        <v>-0.0279</v>
+        <v>-2.7900000000000001E-2</v>
       </c>
       <c r="F25">
-        <v>0.7876</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
-        <v>0.6579</v>
-      </c>
-      <c r="D26">
-        <v>0.001</v>
-      </c>
-      <c r="E26">
-        <v>0.2502</v>
-      </c>
-      <c r="F26">
-        <v>1.0656</v>
-      </c>
-      <c r="G26" t="b">
+      <c r="C26" s="2">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.0656000000000001</v>
+      </c>
+      <c r="G26" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1028,22 +1087,22 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>-0.2743</v>
+        <v>-0.27429999999999999</v>
       </c>
       <c r="D27">
-        <v>0.4189</v>
+        <v>0.41889999999999999</v>
       </c>
       <c r="E27">
-        <v>-0.6820000000000001</v>
+        <v>-0.68200000000000005</v>
       </c>
       <c r="F27">
-        <v>0.1334</v>
+        <v>0.13339999999999999</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1051,22 +1110,22 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="D28">
         <v>0.9</v>
       </c>
       <c r="E28">
-        <v>-0.404</v>
+        <v>-0.40400000000000003</v>
       </c>
       <c r="F28">
-        <v>0.4115</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1074,16 +1133,16 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D29">
-        <v>0.4011</v>
+        <v>0.40110000000000001</v>
       </c>
       <c r="E29">
-        <v>-0.1297</v>
+        <v>-0.12970000000000001</v>
       </c>
       <c r="F29">
-        <v>0.6858</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
